--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393162.5448014903</v>
+        <v>390286.2026808392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8616342.996455256</v>
+        <v>8585397.26343306</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12404360.14537758</v>
+        <v>12406372.07179662</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>305.5815949915245</v>
       </c>
       <c r="E2" t="n">
-        <v>274.0262059920312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55.63248688320348</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>67.00913094683261</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>123.3397726353231</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>107.8367894856927</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>244.5007514295311</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>54.33149515919852</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.73697610382917</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>135.6089145134688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>141.55483850657</v>
       </c>
       <c r="W10" t="n">
-        <v>142.630734290631</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>249.458127581561</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>57.68750238080833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991862</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U19" t="n">
-        <v>79.74890922054348</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>114.1627038799785</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>59.903209192989</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>211.0910963765139</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.824156177168349</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.119387955707412</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>194.8237330667917</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.2369515041628</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.94319885314876</v>
       </c>
       <c r="E34" t="n">
-        <v>95.58688741416648</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440898</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108349</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>23.94516103140496</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3509,16 +3509,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>4.83707080080631</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>1542.271337979254</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.881273373638</v>
+        <v>1173.308821038842</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.881273373638</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>939.0871259069402</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>528.1012211173327</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>110.1374130155195</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>110.1374130155195</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1928.871178043375</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>290.5651556036578</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224072</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2588.223041032674</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2369.588374004737</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2115.826588642828</v>
+        <v>2450.178635028797</v>
       </c>
       <c r="V5" t="n">
-        <v>1784.763701299258</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="W5" t="n">
-        <v>1784.763701299258</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X5" t="n">
-        <v>1784.763701299258</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951864</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951864</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951864</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C8" t="n">
         <v>1036.358670716696</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W10" t="n">
-        <v>369.7691122461817</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X10" t="n">
-        <v>369.7691122461817</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.184671586541</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.222154646129</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.956456039379</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.168203441134</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.1822986515268</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1098484965233</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5262481052905</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.52934934475927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4084803037848</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2278539936315</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.746669646986</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.296972476815</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.049244703462</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4074.3896725683</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4469.164038925478</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.45040068116</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4776.467467237963</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4666.176798765058</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4460.19905114928</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.221144501239</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.158257157669</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.389601887554</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.923843626475</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.784511650663</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5610873936848</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1080581125578</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.1736484513067</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9361934458511</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4016354727362</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0385353053542</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5366409432218</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.52934934475927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2066188353765</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.4708178157236</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.1689781283887</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.445303350705</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.968346905159</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.929626323215</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.429217799317</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.070775445918</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.926422038433</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.488535531913</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.845535209769</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.777688344184</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.625580112441</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.38822338424</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.536723178707</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.776424413753</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300.0167405519604</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>300.0167405519604</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7465361269015</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7465361269015</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7465361269015</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.52934934475927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.52934934475927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6519817916949</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6391647405713</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.1989631890675</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.356008788617</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.764385494481</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.093984414895</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.701484848554</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.311781001069</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.311781001069</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.625896827895</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.859281397421</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.756414523065</v>
+        <v>1883.949150983574</v>
       </c>
       <c r="V13" t="n">
-        <v>999.0719263171781</v>
+        <v>1629.264662777687</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6547562802175</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6652053822002</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6652053822002</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.97392775006</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786342</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1372.506055500459</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1117.821567294572</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1117.821567294572</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>889.8320163965544</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.8320163965544</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,34 +5735,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>673.3827746590077</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0669121539789</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
         <v>263.2638710736754</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570251</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590077</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y22" t="n">
-        <v>673.3827746590077</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5996,13 +5996,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,7 +6069,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,13 +6078,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1551.434252258284</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1262.331385383927</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1007.64689717804</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>718.2297271410798</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>718.2297271410798</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>718.2297271410798</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,13 +6212,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6230,22 +6230,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6260,16 +6260,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>274.0404001883707</v>
       </c>
       <c r="L27" t="n">
-        <v>915.089423558717</v>
+        <v>764.7727330321219</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.8142640742427</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8780811463358</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7614417340001</v>
+        <v>412.838420576763</v>
       </c>
       <c r="E28" t="n">
-        <v>93.84834815160703</v>
+        <v>264.9253269943699</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
         <v>93.84834815160703</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2427.271703420839</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2244.101513159769</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.422730874151</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.346517188878</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.662028982991</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.24485894603</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2553080480126</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4627289044824</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="29">
@@ -6473,16 +6473,16 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6540,22 +6540,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>144.0153224630501</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>474.5240650264088</v>
       </c>
       <c r="L30" t="n">
-        <v>915.0894235587172</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810845</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.203741210181</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.9184063975742</v>
+        <v>790.3350971725663</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9822234696674</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8655840573316</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.450659512209</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.450659512209</v>
+        <v>1964.867350287201</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.766171306322</v>
+        <v>1710.182862081314</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.349001269361</v>
+        <v>1420.765692044354</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.359450371344</v>
+        <v>1192.776141146336</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.566871227814</v>
+        <v>971.983562002806</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160693</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507203</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384025</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944178</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883216</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800323</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259462</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.95191294681</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052818</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6777,22 +6777,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149661</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587177</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810846</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.203741210182</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>897.9446874942893</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C34" t="n">
-        <v>729.0085045663824</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D34" t="n">
-        <v>729.0085045663824</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="E34" t="n">
-        <v>632.4560930369213</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F34" t="n">
-        <v>485.5661455390109</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
         <v>2311.69936578226</v>
@@ -6880,28 +6880,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294197</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S34" t="n">
-        <v>2361.553154294197</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T34" t="n">
-        <v>2361.553154294197</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U34" t="n">
-        <v>2072.476940608924</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V34" t="n">
-        <v>1817.792452403037</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W34" t="n">
-        <v>1528.375282366076</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X34" t="n">
-        <v>1300.385731468059</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y34" t="n">
-        <v>1079.593152324529</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,40 +6923,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160714</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507204</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384027</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944178</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883216</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800323</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259462</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -7014,22 +7014,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>584.5806809953588</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.599035247487</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.694998646823</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.571473647018</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890997</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D37" t="n">
         <v>388.6513892319105</v>
@@ -7093,22 +7093,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
         <v>2311.69936578226</v>
@@ -7117,28 +7117,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074626</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789008</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103735</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897848</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860887</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628696</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193394</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0691298872742</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>131.6848050358591</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400279</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908602</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782908522</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>49.10144662915843</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>96.29882936165777</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>31.26121461812622</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.537044377340976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90.92797063740403</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>214.5414662356943</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.332355114308976e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U19" t="n">
-        <v>206.4629289850694</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>53.08411721864933</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>88.71226382522335</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143195</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.457852899655336</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>141.5968918457629</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.06136363537615</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>22.65826139597013</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>110.9485000442577</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>78.6722741650636</v>
       </c>
       <c r="E34" t="n">
-        <v>50.84707523240269</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>143.3016600672229</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440898</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108349</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>61.86693864009517</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>162.4097502978215</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1119394.664708337</v>
+        <v>1121043.739384812</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1056529.556540527</v>
+        <v>1056710.45565147</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1056710.455651471</v>
+        <v>1056710.45565147</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1053560.187352095</v>
+        <v>1053672.263193473</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1053560.187352095</v>
+        <v>1053672.263193473</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1053560.187352095</v>
+        <v>1053672.263193473</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366019.3723711928</v>
+        <v>366590.2059130497</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>357318.5512686887</v>
+        <v>357373.6081982848</v>
       </c>
       <c r="F2" t="n">
         <v>357373.608198285</v>
       </c>
       <c r="G2" t="n">
-        <v>357373.6081982852</v>
+        <v>357373.6081982853</v>
       </c>
       <c r="H2" t="n">
-        <v>357373.608198285</v>
+        <v>357373.6081982853</v>
       </c>
       <c r="I2" t="n">
-        <v>357373.6081982852</v>
+        <v>357373.6081982851</v>
       </c>
       <c r="J2" t="n">
-        <v>363007.3397033516</v>
+        <v>363007.3397033519</v>
       </c>
       <c r="K2" t="n">
-        <v>363007.3397033517</v>
+        <v>363007.3397033519</v>
       </c>
       <c r="L2" t="n">
         <v>363007.3397033518</v>
       </c>
       <c r="M2" t="n">
-        <v>363007.3397033517</v>
+        <v>363007.3397033519</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605026</v>
+        <v>363007.339703352</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605026</v>
+        <v>363007.3397033518</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363007.3397033518</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727259.1580574922</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>113.4825750517191</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>369281.343386962</v>
+        <v>369281.3433869618</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.503360054921359e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129543.6141568661</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>6857.891039258534</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196689.3555109862</v>
+        <v>197413.3843805904</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25068.69066685684</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
+        <v>5781.971894855169</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="M4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="K4" t="n">
-        <v>5781.971894855114</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5781.971894855047</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5781.971894855035</v>
-      </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855165</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855169</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.971894855118</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96359.43757495095</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26497,19 +26497,19 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503496.9404177475</v>
+        <v>-503666.1279150828</v>
       </c>
       <c r="C6" t="n">
         <v>85545.2124477865</v>
       </c>
       <c r="D6" t="n">
-        <v>85545.21244778627</v>
+        <v>85545.21244778638</v>
       </c>
       <c r="E6" t="n">
-        <v>-491368.7350306113</v>
+        <v>-491545.2432140553</v>
       </c>
       <c r="F6" t="n">
-        <v>235785.8836945258</v>
+        <v>235832.1707793518</v>
       </c>
       <c r="G6" t="n">
-        <v>235899.3662695777</v>
+        <v>235832.170779352</v>
       </c>
       <c r="H6" t="n">
-        <v>235899.3662695775</v>
+        <v>235832.1707793521</v>
       </c>
       <c r="I6" t="n">
-        <v>235899.3662695777</v>
+        <v>235832.1707793518</v>
       </c>
       <c r="J6" t="n">
-        <v>-112986.0150357041</v>
+        <v>-113021.912017568</v>
       </c>
       <c r="K6" t="n">
-        <v>256295.328351258</v>
+        <v>256259.4313693939</v>
       </c>
       <c r="L6" t="n">
-        <v>256295.3283512575</v>
+        <v>256259.4313693938</v>
       </c>
       <c r="M6" t="n">
-        <v>126751.714194392</v>
+        <v>126617.1165304492</v>
       </c>
       <c r="N6" t="n">
-        <v>250167.9563956666</v>
+        <v>256259.4313693939</v>
       </c>
       <c r="O6" t="n">
-        <v>257025.8474349251</v>
+        <v>256259.4313693938</v>
       </c>
       <c r="P6" t="n">
-        <v>257025.8474349249</v>
+        <v>256259.4313693938</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26765,19 +26765,19 @@
         <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.116866809491</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
         <v>1194.51293060493</v>
@@ -26823,13 +26823,13 @@
         <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.934451625287238</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549352</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549352</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549352</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>107.9041640802306</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>317.9797540992868</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>79.42483169973656</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>101.6953328227612</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>66.57892332327883</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.723416078758248</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>112.9783070998524</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053967</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>366.9968655596514</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>234.1221861650003</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>110.582804817258</v>
       </c>
       <c r="W10" t="n">
-        <v>143.89226404596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>319.8536127488677</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745724</v>
@@ -33035,16 +33035,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
         <v>55.91171011122282</v>
@@ -33190,7 +33190,7 @@
         <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293309</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
         <v>974.1453645229608</v>
@@ -33205,7 +33205,7 @@
         <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
@@ -33254,31 +33254,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>177.5113380923668</v>
       </c>
       <c r="K30" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33290,7 +33290,7 @@
         <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33348,7 +33348,7 @@
         <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
         <v>374.7525405416874</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377429</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122286</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874068</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830435</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364269</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293314</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229614</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086957</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687528</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665721</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088192</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848227</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745728</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504305</v>
+        <v>539.3575949355015</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927642</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>571.4938338238223</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862163</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284931</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265024</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561744</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851331</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377429</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122286</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874068</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830435</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364269</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293314</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229614</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086957</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687528</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148611</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987165</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665721</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901942</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540907</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088192</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745728</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504305</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927642</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O36" t="n">
-        <v>694.996724242621</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>344.3187317059951</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862163</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291844</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548569</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284931</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640621</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265024</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416877</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465965</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282426</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561744</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851331</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>220.7280629601522</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>359.7096985496632</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>639.7378059240784</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282469</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
         <v>728.287436302058</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>182.0121737745087</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946982</v>
@@ -36683,16 +36683,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020582</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O29" t="n">
         <v>689.7596327870084</v>
@@ -36853,7 +36853,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>50.67371142570007</v>
       </c>
       <c r="K30" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
@@ -37005,10 +37005,10 @@
         <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607205</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380629</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664397</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020587</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263705</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.759632787009</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134833</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136704</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104637</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946987</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284122</v>
+        <v>397.2235610134832</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094309</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>428.8975893793779</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243782</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209163</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607205</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380629</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664397</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020587</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263705</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.759632787009</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>605.1570404425685</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404115</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845844</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946987</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284122</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094309</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981765</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>210.3443242916648</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243782</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.464234388343</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209163</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606361</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88662398579324</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3679864663299</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
